--- a/05-Sesion-29-08/Modelado.xlsx
+++ b/05-Sesion-29-08/Modelado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SENA\ADSO-2675847\Sesion-2675847\05-Sesion-29-08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD4E158-AEA4-4854-A36B-5C9C5277C0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCD31A-5162-4C9D-B2B2-9F79B131496D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{E1AB6711-2BDD-41AB-9E09-9059AD22F2F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{E1AB6711-2BDD-41AB-9E09-9059AD22F2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cliente " sheetId="1" r:id="rId1"/>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C69E1-79F3-4191-A481-6D66A3D5E0D4}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB11C59-ADFE-4483-879A-70EEBB61A251}">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F7"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
